--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/15/seed1/result_data_RandomForest.xlsx
@@ -485,13 +485,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.91009999999999</v>
+        <v>-21.15169999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.6506</v>
+        <v>-12.09749999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.59070000000002</v>
+        <v>-22.57400000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.13440000000001</v>
+        <v>-18.7879</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -536,7 +536,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.834999999999997</v>
+        <v>-8.127799999999993</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.700100000000003</v>
+        <v>-8.6587</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.2172</v>
+        <v>-10.15160000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.472600000000003</v>
+        <v>-7.514500000000001</v>
       </c>
     </row>
     <row r="11">
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.17639999999999</v>
+        <v>-10.2978</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.624299999999998</v>
+        <v>-8.640699999999995</v>
       </c>
     </row>
     <row r="14">
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.93000000000001</v>
+        <v>-21.98520000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -662,7 +662,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.545199999999994</v>
+        <v>-8.6511</v>
       </c>
     </row>
     <row r="17">
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-14.00029999999999</v>
+        <v>-14.39179999999999</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.51599999999999</v>
+        <v>-12.6025</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.1267</v>
+        <v>-11.0463</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.07349999999998</v>
+        <v>-20.05119999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.5294</v>
+        <v>-12.3631</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.7844</v>
+        <v>-11.4087</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.97470000000001</v>
+        <v>-21.95529999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.20219999999997</v>
+        <v>-21.16059999999996</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.074799999999993</v>
+        <v>-6.8652</v>
       </c>
     </row>
     <row r="31">
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.7538</v>
+        <v>-12.9124</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.154</v>
+        <v>-21.13249999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-11.2693</v>
+        <v>-11.72349999999999</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -989,16 +989,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.2252</v>
+        <v>-20.22830000000001</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.13789999999999</v>
+        <v>-11.87350000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.990799999999999</v>
+        <v>-7.647199999999997</v>
       </c>
     </row>
     <row r="41">
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.1</v>
+        <v>-12.26819999999999</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.35899999999999</v>
+        <v>-11.1957</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1037,7 +1037,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.38459999999999</v>
+        <v>-12.25129999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.226699999999999</v>
+        <v>-6.425800000000002</v>
       </c>
     </row>
     <row r="45">
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.76550000000001</v>
+        <v>-21.6443</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.20839999999999</v>
+        <v>-12.18579999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.4514</v>
+        <v>-11.60389999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.71129999999999</v>
+        <v>-21.77269999999999</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.2368</v>
+        <v>-22.20629999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.44920000000002</v>
+        <v>-22.37180000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.11150000000001</v>
+        <v>-21.99730000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.08070000000001</v>
+        <v>-22.0712</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1317,7 +1317,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.4869</v>
+        <v>-10.3534</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.25869999999999</v>
+        <v>-10.1866</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.43029999999998</v>
+        <v>-21.39349999999999</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.28649999999998</v>
+        <v>-20.44939999999998</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.42229999999998</v>
+        <v>-21.44409999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-11.8323</v>
+        <v>-11.7172</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.56209999999999</v>
+        <v>-14.0373</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1681,10 +1681,10 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-14.53369999999999</v>
+        <v>-14.36729999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.425999999999998</v>
+        <v>-8.217499999999998</v>
       </c>
     </row>
     <row r="90">
@@ -1712,12 +1712,12 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-8.1546</v>
+        <v>-8.035299999999998</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.66210000000001</v>
+        <v>-21.68080000000001</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.5783</v>
+        <v>-10.8057</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.91090000000002</v>
+        <v>-22.03200000000002</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
